--- a/gouden-draak/public/sales/sales-2021-06-19.xlsx
+++ b/gouden-draak/public/sales/sales-2021-06-19.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>orderID</t>
   </si>
@@ -27,7 +27,7 @@
     <t>naam</t>
   </si>
   <si>
-    <t>gerecht_id_0</t>
+    <t>gerecht_0</t>
   </si>
   <si>
     <t>opmerking_0</t>
@@ -39,7 +39,7 @@
     <t>aantal_0</t>
   </si>
   <si>
-    <t>gerecht_id_1</t>
+    <t>gerecht_1</t>
   </si>
   <si>
     <t>opmerking_1</t>
@@ -51,7 +51,7 @@
     <t>aantal_1</t>
   </si>
   <si>
-    <t>gerecht_id_2</t>
+    <t>gerecht_2</t>
   </si>
   <si>
     <t>opmerking_2</t>
@@ -63,7 +63,7 @@
     <t>aantal_2</t>
   </si>
   <si>
-    <t>gerecht_id_3</t>
+    <t>gerecht_3</t>
   </si>
   <si>
     <t>opmerking_3</t>
@@ -75,7 +75,7 @@
     <t>aantal_3</t>
   </si>
   <si>
-    <t>gerecht_id_4</t>
+    <t>gerecht_4</t>
   </si>
   <si>
     <t>opmerking_4</t>
@@ -87,7 +87,7 @@
     <t>aantal_4</t>
   </si>
   <si>
-    <t>gerecht_id_5</t>
+    <t>gerecht_5</t>
   </si>
   <si>
     <t>opmerking_5</t>
@@ -99,7 +99,7 @@
     <t>aantal_5</t>
   </si>
   <si>
-    <t>gerecht_id_6</t>
+    <t>gerecht_6</t>
   </si>
   <si>
     <t>opmerking_6</t>
@@ -111,7 +111,7 @@
     <t>aantal_6</t>
   </si>
   <si>
-    <t>gerecht_id_7</t>
+    <t>gerecht_7</t>
   </si>
   <si>
     <t>opmerking_7</t>
@@ -123,7 +123,7 @@
     <t>aantal_7</t>
   </si>
   <si>
-    <t>gerecht_id_8</t>
+    <t>gerecht_8</t>
   </si>
   <si>
     <t>opmerking_8</t>
@@ -135,7 +135,7 @@
     <t>aantal_8</t>
   </si>
   <si>
-    <t>gerecht_id_9</t>
+    <t>gerecht_9</t>
   </si>
   <si>
     <t>opmerking_9</t>
@@ -147,10 +147,43 @@
     <t>aantal_9</t>
   </si>
   <si>
+    <t>Soep Ling Fa</t>
+  </si>
+  <si>
+    <t>Kippensoep</t>
+  </si>
+  <si>
+    <t>Tomatensoep</t>
+  </si>
+  <si>
+    <t>Champignonsoep</t>
+  </si>
+  <si>
+    <t>Chinese Champignonsoep</t>
+  </si>
+  <si>
+    <t>Wan Tan Soep</t>
+  </si>
+  <si>
+    <t>Haaienvinnensoep</t>
+  </si>
+  <si>
+    <t>Loempia Compleet</t>
+  </si>
+  <si>
+    <t>Vegetarische mini loempia</t>
+  </si>
+  <si>
+    <t>Chinese mini loempia</t>
+  </si>
+  <si>
     <t>2021-06-20 09:57:00</t>
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Pekingsoep</t>
   </si>
 </sst>
 </file>
@@ -634,80 +667,80 @@
       </c>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>43</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>2</v>
+      <c r="H2" t="s">
+        <v>44</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2">
         <v>3</v>
       </c>
-      <c r="L2">
-        <v>3</v>
+      <c r="L2" t="s">
+        <v>45</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2">
         <v>2</v>
       </c>
-      <c r="P2">
-        <v>5</v>
+      <c r="P2" t="s">
+        <v>46</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2">
         <v>6</v>
       </c>
-      <c r="T2">
-        <v>8</v>
+      <c r="T2" t="s">
+        <v>47</v>
       </c>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2">
         <v>1</v>
       </c>
-      <c r="X2">
-        <v>7</v>
+      <c r="X2" t="s">
+        <v>48</v>
       </c>
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2">
         <v>2</v>
       </c>
-      <c r="AB2">
-        <v>4</v>
+      <c r="AB2" t="s">
+        <v>49</v>
       </c>
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2">
         <v>2</v>
       </c>
-      <c r="AF2">
-        <v>10</v>
+      <c r="AF2" t="s">
+        <v>50</v>
       </c>
       <c r="AG2"/>
       <c r="AH2"/>
       <c r="AI2">
         <v>1</v>
       </c>
-      <c r="AJ2">
-        <v>14</v>
+      <c r="AJ2" t="s">
+        <v>51</v>
       </c>
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2">
         <v>3</v>
       </c>
-      <c r="AN2">
-        <v>13</v>
+      <c r="AN2" t="s">
+        <v>52</v>
       </c>
       <c r="AO2"/>
       <c r="AP2"/>
@@ -820,45 +853,45 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>2</v>
+      <c r="H2" t="s">
+        <v>44</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>4</v>
+      <c r="L2" t="s">
+        <v>49</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2">
         <v>1</v>
       </c>
-      <c r="P2">
-        <v>5</v>
+      <c r="P2" t="s">
+        <v>46</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2">
         <v>1</v>
       </c>
-      <c r="T2">
-        <v>6</v>
+      <c r="T2" t="s">
+        <v>55</v>
       </c>
       <c r="U2"/>
       <c r="V2"/>
